--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed5/result_data_KNN.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.638</v>
+        <v>6.4</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.286</v>
+        <v>-21.448</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.148</v>
+        <v>-12.697</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.948</v>
+        <v>-12.177</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.382000000000001</v>
+        <v>7.513000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.226</v>
+        <v>-12.641</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-21.652</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.243999999999999</v>
+        <v>5.172</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-20.402</v>
+        <v>-20.615</v>
       </c>
       <c r="B32" t="n">
-        <v>8.941999999999998</v>
+        <v>7.537999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.630000000000001</v>
+        <v>6.572</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.794</v>
+        <v>-20.512</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.938</v>
+        <v>-20.474</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.4</v>
+        <v>-11.626</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.776</v>
+        <v>-11.991</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>7.819999999999999</v>
+        <v>7.761</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.776</v>
+        <v>-21.651</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.818000000000001</v>
+        <v>6.237</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.678</v>
+        <v>-11.632</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-20.424</v>
+        <v>-20.82</v>
       </c>
       <c r="B54" t="n">
-        <v>6.659999999999999</v>
+        <v>6.215999999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.964</v>
+        <v>-22.184</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.708</v>
+        <v>-21.461</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.346</v>
+        <v>-21.418</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.298</v>
+        <v>-21.323</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-20.966</v>
+        <v>-21.194</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.506</v>
+        <v>-12.648</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>6.819999999999999</v>
+        <v>7.329000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.574</v>
+        <v>-11.833</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>7.25</v>
+        <v>7.398999999999999</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.994</v>
+        <v>-21.294</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.19</v>
+        <v>-13.419</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.368</v>
+        <v>-12.335</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.914</v>
+        <v>-21.429</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.992</v>
+        <v>-13.349</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.302</v>
+        <v>-10.589</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.732</v>
+        <v>-20.905</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.16</v>
+        <v>-21.338</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.664</v>
+        <v>-10.38</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.296</v>
+        <v>5.401999999999999</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.702</v>
+        <v>-20.861</v>
       </c>
       <c r="B99" t="n">
-        <v>5.528</v>
+        <v>6.287999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.087999999999999</v>
+        <v>5.661</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-13.288</v>
+        <v>-12.411</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.174</v>
+        <v>-21.437</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
